--- a/artfynd/A 31588-2020.xlsx
+++ b/artfynd/A 31588-2020.xlsx
@@ -809,10 +809,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112436368</v>
+        <v>112436438</v>
       </c>
       <c r="B3" t="n">
-        <v>56331</v>
+        <v>56350</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -825,33 +825,33 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100034</v>
+        <v>102110</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå kärrhök</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Circus cyaneus</t>
+          <t>Buteo lagopus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1766)</t>
+          <t>(Pontoppidan, 1763)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>sträckande S</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -907,11 +907,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>10:30</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Hans * hona.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -938,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112436438</v>
+        <v>112436408</v>
       </c>
       <c r="B4" t="n">
-        <v>56350</v>
+        <v>57001</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -950,37 +945,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102110</v>
+        <v>102120</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Rödstrupig piplärka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Buteo lagopus</t>
+          <t>Anthus cervinus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pontoppidan, 1763)</t>
+          <t>(Pallas, 1811)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>sträckande S</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -1062,10 +1057,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112436408</v>
+        <v>112436368</v>
       </c>
       <c r="B5" t="n">
-        <v>57001</v>
+        <v>56332</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1074,25 +1069,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102120</v>
+        <v>100034</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödstrupig piplärka</t>
+          <t>Blå kärrhök</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Anthus cervinus</t>
+          <t>Circus cyaneus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pallas, 1811)</t>
+          <t>(Linnaeus, 1766)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1104,7 +1099,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1160,6 +1155,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>10:30</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Hans * hona.</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 31588-2020.xlsx
+++ b/artfynd/A 31588-2020.xlsx
@@ -680,49 +680,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112436339</v>
+        <v>112436408</v>
       </c>
       <c r="B2" t="n">
-        <v>55927</v>
+        <v>57001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rapport ska skrivas (för Rrk)</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100061</v>
+        <v>102120</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dubbelbeckasin</t>
+          <t>Rödstrupig piplärka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Gallinago media</t>
+          <t>Anthus cervinus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Latham, 1787)</t>
+          <t>(Pallas, 1811)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>rastande</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -778,11 +778,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>10:30</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Stöttes i stubbåker intill Stångån.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -809,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112436438</v>
+        <v>112436368</v>
       </c>
       <c r="B3" t="n">
-        <v>56350</v>
+        <v>56332</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -825,33 +820,33 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102110</v>
+        <v>100034</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Blå kärrhök</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Buteo lagopus</t>
+          <t>Circus cyaneus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Pontoppidan, 1763)</t>
+          <t>(Linnaeus, 1766)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>sträckande S</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -907,6 +902,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>10:30</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Hans * hona.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -933,49 +933,49 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112436408</v>
+        <v>112436339</v>
       </c>
       <c r="B4" t="n">
-        <v>57001</v>
+        <v>55927</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Rapport ska skrivas (för Rrk)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102120</v>
+        <v>100061</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödstrupig piplärka</t>
+          <t>Dubbelbeckasin</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anthus cervinus</t>
+          <t>Gallinago media</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pallas, 1811)</t>
+          <t>(Latham, 1787)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>rastande</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -1031,6 +1031,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>10:30</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Stöttes i stubbåker intill Stångån.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1057,10 +1062,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112436368</v>
+        <v>112436438</v>
       </c>
       <c r="B5" t="n">
-        <v>56332</v>
+        <v>56350</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1073,33 +1078,33 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100034</v>
+        <v>102110</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå kärrhök</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Circus cyaneus</t>
+          <t>Buteo lagopus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1766)</t>
+          <t>(Pontoppidan, 1763)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>sträckande S</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1155,11 +1160,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>10:30</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Hans * hona.</t>
         </is>
       </c>
       <c r="AD5" t="b">
